--- a/biology/Botanique/Rhodophyta/Rhodophyta.xlsx
+++ b/biology/Botanique/Rhodophyta/Rhodophyta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhodophytes, Algues rouges
 Les algues rouges, ou Rhodophytes (division des Rhodophyta), sont un grand taxon d'algues pour la plupart marines et pour la plupart multicellulaires (la plupart sont sessiles, c'est-à-dire qu'elles se développent fixées sur un substrat quelconque).
@@ -515,17 +527,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les pigments photosynthétiques
-Les rhodophytes contiennent des pigments rencontrés chez les autres végétaux, la chlorophylle a et des caroténoïdes, mais leur originalité consiste dans la présence de phycobilisomes comprenant les phycobiliprotéines : allophycocyanine (bleu), phycocyanine (bleu) et phycoérythrine qui donne la couleur rouge. Le chloroplaste peut alors être appelé rhodoplaste. L’organisation du chloroplaste est la suivante : les thylakoïdes sont libres et ne forment pas de grana (ceci est lié à la présence des phycobilisomes à la surface des thylakoïdes), ils sont répartis concentriquement dans le chloroplaste mais occupent tout l’espace, contrairement à ceux des Glaucophytes et des Cyanobactéries.
+          <t>Les pigments photosynthétiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rhodophytes contiennent des pigments rencontrés chez les autres végétaux, la chlorophylle a et des caroténoïdes, mais leur originalité consiste dans la présence de phycobilisomes comprenant les phycobiliprotéines : allophycocyanine (bleu), phycocyanine (bleu) et phycoérythrine qui donne la couleur rouge. Le chloroplaste peut alors être appelé rhodoplaste. L’organisation du chloroplaste est la suivante : les thylakoïdes sont libres et ne forment pas de grana (ceci est lié à la présence des phycobilisomes à la surface des thylakoïdes), ils sont répartis concentriquement dans le chloroplaste mais occupent tout l’espace, contrairement à ceux des Glaucophytes et des Cyanobactéries.
 La pigmentation (rapport des pigments présents) dépend à un degré remarquable de la longueur d'onde de la lumière qui atteint l'algue. En profondeur, les algues accumulent une grande quantité de phycoérythrine, pigment qui peut absorber la lumière à cette profondeur. Si les algues sont en surface, ce pigment rouge diminue, elles deviennent plus vertes malgré leur appellation. Cependant les quantités de chlorophylles demeurent inchangées que l’algue soit en surface ou en profondeur; on parle alors d'adaptation chromatique.
-Substances de réserves
-L’amidon est stocké sous forme de vésicules dans le cytoplasme (et non dans le plaste comme chez les plantes et algues vertes) : l'amidon floridéen (aussi appelé rhodamylon).
-Floridoside
-La floridoside (2-O-α-d-galactopyranosylglycerol) est un glucide, hétéroside, de formule C9H18O8[1]. C'est une molécule propre aux algues rouges, synthétisée par toutes les algues rouges, excepté les membres de l’ordre des Ceramiales[2]. Elle est le produit principal de la fixation du carbone par la photosynthèse et, pourra être utilisée par la suite pour la synthèse de macromolécules (amidon, polysaccharides solubles…)[3]. C'est également un osmoprotecteur dont la concentration intracytoplasmique augmente en réponse à un stress hyperosmotique[4],[5],[6],[7]. La floridoside semble être aussi un précurseur de la paroi polysaccharidique chez quelques espèces d'algues rouges[8].
-Organisation cellulaire
-Les Rhodophytes sont caractérisées par une organisation cellulaire de type eucaryote, mais il faut noter l’absence de cils et de flagelles (à aucun stade du développement), par un gamète mâle non-mobile et par un cycle de vie digénétique ou trigénétique (comportant successivement des générations de gamétophytes, de carposporophytes dans les cycles trigénétiques et de (tétra)sporophytes).
-La paroi
-Leur paroi pectocellulosique est de composition complexe. Elle contient de la cellulose associé dans sa partie interne à d'autres polysaccharides parfois en quantité importante, agar-agar donnant une texture flexible et glissante, et dans sa partie externe elle est associée à des carbonate de calcium ce qui donne des algues dures et pierreuses : elle participe à la stabilisation des massifs coralliens en cimentant les débris coraux. La structure calcaire demeure même après la mort de l'algue, formant parfois des masses rocheuse imposantes (corallinaceae).
 </t>
         </is>
       </c>
@@ -551,46 +560,198 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Substances de réserves</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’amidon est stocké sous forme de vésicules dans le cytoplasme (et non dans le plaste comme chez les plantes et algues vertes) : l'amidon floridéen (aussi appelé rhodamylon).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rhodophyta</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rhodophyta</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Floridoside</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floridoside (2-O-α-d-galactopyranosylglycerol) est un glucide, hétéroside, de formule C9H18O8. C'est une molécule propre aux algues rouges, synthétisée par toutes les algues rouges, excepté les membres de l’ordre des Ceramiales. Elle est le produit principal de la fixation du carbone par la photosynthèse et, pourra être utilisée par la suite pour la synthèse de macromolécules (amidon, polysaccharides solubles…). C'est également un osmoprotecteur dont la concentration intracytoplasmique augmente en réponse à un stress hyperosmotique. La floridoside semble être aussi un précurseur de la paroi polysaccharidique chez quelques espèces d'algues rouges.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rhodophyta</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rhodophyta</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Organisation cellulaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Rhodophytes sont caractérisées par une organisation cellulaire de type eucaryote, mais il faut noter l’absence de cils et de flagelles (à aucun stade du développement), par un gamète mâle non-mobile et par un cycle de vie digénétique ou trigénétique (comportant successivement des générations de gamétophytes, de carposporophytes dans les cycles trigénétiques et de (tétra)sporophytes).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rhodophyta</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rhodophyta</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>La paroi</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leur paroi pectocellulosique est de composition complexe. Elle contient de la cellulose associé dans sa partie interne à d'autres polysaccharides parfois en quantité importante, agar-agar donnant une texture flexible et glissante, et dans sa partie externe elle est associée à des carbonate de calcium ce qui donne des algues dures et pierreuses : elle participe à la stabilisation des massifs coralliens en cimentant les débris coraux. La structure calcaire demeure même après la mort de l'algue, formant parfois des masses rocheuse imposantes (corallinaceae).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rhodophyta</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rhodophyta</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La grande majorité des algues rouges est rencontrée dans le milieu marin.
 Chondrus crispus et Mastocarpus stellatus (Gigartina stellata) sont souvent associées et vivent fixées au rocher. Ces deux espèces sont récoltées afin d'extraire les carraghénanes utilisés comme gélifiant dans l'industrie agroalimentaire.
 Certaines algues rouges comme Porphyra sont consommées en Extrême-Orient. Porphyra est cultivée au Japon : sous le nom de nori, elle intervient dans la confection des sushis.
 Certaines algues rouges sont abondantes dans les récifs de coraux. Les Corallinaceae produisent une enveloppe extracellulaire de carbonate de calcium et peuvent participer à la construction du récif de corail.
 Certaines algues rouges sont très résistantes à des conditions extrêmes et sont donc extrêmophiles : par exemple, Cyanidium caldarium vit à un pH inférieur à 1 dans les sources acides.
-Le plus ancien fossile multicellulaire d'eucaryote découvert à ce jour serait[9] une algue rouge filamenteuse vieille de 1,7 milliard d'années, trouvée dans les monts Vindhya[10]. Les rhodophytes sont ainsi apparues après les cyanobactéries (anciennement appelées algues bleues) qui avaient précédemment provoqué, par l'action cumulée de la photosynthèse, le bouleversement planétaire appelé la Grande Oxydation. Elles ont profité des nouvelles conditions écologiques, notamment de l'apparition de  la couche d'ozone stratosphérique qui filtre la plus grande partie du rayonnement solaire ultraviolet et qui protège de son effet biocide, pour occuper dans les océans une niche écologique plus proche de la surface. Cette nouvelle zone de développement de la vie étant cependant encore trop profonde pour que la seule chlorophylle suffise à l'autonomie énergétique, ce sont, à l'instar des cyanobactéries, les pigments complémentaires synthétisés par les algues rouges qui leur ont permis de pallier un environnement encore trop sombre et de capter l'énergie d'autres fréquences lumineuses du rayonnement solaire[11].
+Le plus ancien fossile multicellulaire d'eucaryote découvert à ce jour serait une algue rouge filamenteuse vieille de 1,7 milliard d'années, trouvée dans les monts Vindhya. Les rhodophytes sont ainsi apparues après les cyanobactéries (anciennement appelées algues bleues) qui avaient précédemment provoqué, par l'action cumulée de la photosynthèse, le bouleversement planétaire appelé la Grande Oxydation. Elles ont profité des nouvelles conditions écologiques, notamment de l'apparition de  la couche d'ozone stratosphérique qui filtre la plus grande partie du rayonnement solaire ultraviolet et qui protège de son effet biocide, pour occuper dans les océans une niche écologique plus proche de la surface. Cette nouvelle zone de développement de la vie étant cependant encore trop profonde pour que la seule chlorophylle suffise à l'autonomie énergétique, ce sont, à l'instar des cyanobactéries, les pigments complémentaires synthétisés par les algues rouges qui leur ont permis de pallier un environnement encore trop sombre et de capter l'énergie d'autres fréquences lumineuses du rayonnement solaire.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Rhodophyta</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Rhodophyta</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Les termes de Rhodoplantae ou de Rhodobiota (Rhodobiontes) proposés assez récemment par certains auteurs sont discutés. La dernière phylogénie en date propose de ne retenir que le terme de Rhodophyta (Rhodophytes) pour l'embranchement, avec deux sous-embranchements : Cyanidiophytina et Rhodophytina (Yoon et al., 2006).
 règne Eukaryota
@@ -713,33 +874,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Rhodophyta</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Rhodophyta</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Liste des classes et ordres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (29 févr. 2012)[12] :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (29 févr. 2012) :
 classe des Rhodophyta incertae sedis
 sous-embranchement des Cyanidiophytina
 classe des Cyanidiophyceae
@@ -752,7 +915,7 @@
 sous-embranchement des Eurhodophytina
 classe des Bangiophyceae
 classe des Florideophyceae
-Selon NCBI  (29 févr. 2012)[13] :
+Selon NCBI  (29 févr. 2012) :
 classe des Bangiophyceae
 ordre des Bangiales
 ordre des Cyanidiales
@@ -792,19 +955,19 @@
 classe des Stylonematophyceae
 ordre des Rufusiales
 ordre des Stylonematales
-Selon World Register of Marine Species                               (29 févr. 2012)[14] :
+Selon World Register of Marine Species                               (29 févr. 2012) :
 sous-division des Eurhodophytina
 sous-division des Metarhodophytina
 classe des Rhodophyta incertae sedis
 sous-division des Rhodophytina
 classe des Rhodophyceae
-Selon ITIS      (29 févr. 2012)[15] :
+Selon ITIS      (29 févr. 2012) :
 classe des Rhodophyceae
-Selon Paleobiology Database                   (29 févr. 2012)[16] :
+Selon Paleobiology Database                   (29 févr. 2012) :
 genre Archaeolithoporella
 Stacheinaceae
 genre Wetheredella
-Il existe plusieurs genres incertae sedis selon AlgaeBase                                           (3 févr. 2019)[17] :
+Il existe plusieurs genres incertae sedis selon AlgaeBase                                           (3 févr. 2019) :
 Allogonium
 Callophycus
 Chabakovia
@@ -830,38 +993,40 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Rhodophyta</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Rhodophyta</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Les génomes d'algue rouge</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Il existe 5 génomes d'algue rouge séquencés dont 4 publiés en 2013.
-Cyanidioschyzon merolae, Cyanidiophyceae[18],[19]
-Galdieria sulphuraria, Cyanidiophyceae[20]
-Pyropia yezoensis, Bangiophyceae[21]
-Chondrus crispus, Florideophyceae[22]
-Porphyridium purpureum, Porphyridiophyceae[23]</t>
+Cyanidioschyzon merolae, Cyanidiophyceae,
+Galdieria sulphuraria, Cyanidiophyceae
+Pyropia yezoensis, Bangiophyceae
+Chondrus crispus, Florideophyceae
+Porphyridium purpureum, Porphyridiophyceae</t>
         </is>
       </c>
     </row>
